--- a/非機能要求一覧(第一反復).xlsx
+++ b/非機能要求一覧(第一反復).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA5A5EA-F770-4E30-B837-84496B508322}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C04384F-368F-4FD9-9D7D-CBB921370628}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -392,6 +392,13 @@
   </si>
   <si>
     <t>人間プレイヤーをコンピュータープレイヤーに変更しやすいようにする(must)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイヤークラスを抽象化クラスする。</t>
+    <rPh sb="9" eb="12">
+      <t>チュウショウカ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1073,8 +1080,8 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1612,7 +1619,9 @@
       <c r="D21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
@@ -2263,12 +2272,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2438,6 +2441,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>
@@ -2447,15 +2456,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1C1027-CEFA-4AD3-8FFD-CE8AA26AEFED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2471,4 +2471,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/非機能要求一覧(第一反復).xlsx
+++ b/非機能要求一覧(第一反復).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C04384F-368F-4FD9-9D7D-CBB921370628}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADFB535-6E2E-4EF6-9CA3-09EE87909160}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -395,9 +395,22 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>プレイヤークラスを抽象化クラスする。</t>
-    <rPh sb="9" eb="12">
-      <t>チュウショウカ</t>
+    <t>プレイヤークラスを抽象クラスにする。</t>
+    <rPh sb="9" eb="11">
+      <t>チュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（↑反復2以降で実施）</t>
+    <rPh sb="2" eb="4">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッシ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1080,8 +1093,8 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1629,7 +1642,9 @@
         <v>23</v>
       </c>
       <c r="D22" s="10"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="11"/>
@@ -2272,6 +2287,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2441,12 +2462,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>
@@ -2456,6 +2471,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1C1027-CEFA-4AD3-8FFD-CE8AA26AEFED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2471,13 +2495,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/非機能要求一覧(第一反復).xlsx
+++ b/非機能要求一覧(第一反復).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADFB535-6E2E-4EF6-9CA3-09EE87909160}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED776D33-48E0-4D7D-B6C2-7DD00A13B0DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -395,22 +395,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>プレイヤークラスを抽象クラスにする。</t>
+    <t>プレイヤークラスを抽象クラスにする。
+（↑反復2以降で実施）</t>
     <rPh sb="9" eb="11">
       <t>チュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>（↑反復2以降で実施）</t>
-    <rPh sb="2" eb="4">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジッシ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1093,8 +1081,8 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1624,7 +1612,7 @@
       <c r="D20" s="15"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="11"/>
       <c r="C21" s="8" t="s">
         <v>22</v>
@@ -1632,7 +1620,7 @@
       <c r="D21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1642,9 +1630,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="10"/>
-      <c r="E22" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="11"/>
@@ -2278,21 +2264,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2462,24 +2433,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1C1027-CEFA-4AD3-8FFD-CE8AA26AEFED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2495,4 +2464,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>